--- a/baiPoC/KeyWord.xlsx
+++ b/baiPoC/KeyWord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlee\Desktop\PoC\baiPoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoC\baiPoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D66ED7-914F-4483-9F60-AC4226A0B846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="600" windowWidth="27075" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="1908" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>공개일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,37 +50,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감사</t>
-  </si>
-  <si>
-    <t>20190101 ~ 20190920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 증인·감정인 등에 대한 여비 지급 절차 등 규정 미비 증인, 감정인 등 감사대상기관 소속 직원이 아닌 자가 감사원에 출석 답변한 경우 여비를 지급해야 하나 관련 절차 등이 미비하여 규정 개정 등을 통해 구체적인 여비 지급 절차를 마련하도록 통보  </t>
+    <t>특허출원</t>
+  </si>
+  <si>
+    <t>20180101 ~ 20190930</t>
+  </si>
+  <si>
+    <t>특허청</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 특허료 등의 반환 및 사후감면신청 안내 방안 미비 반환대상 특허료 등이 반환청구 기간의 경과로 반환되지 않는 사례가 발생하지 않도록 특허료 등을 납부할 때 사전에 반환계좌를 등록하도록 하고, 출원이력을 검토하여 감면대상인데도 감면받지 못한 중견기업 등에 사후감면을 신청하도록 안내하는 방안을 마련하도록 통보  </t>
+  </si>
+  <si>
+    <t>공개문-[특허청(통보)] 특허료 등의 반환 및 사후감면신청 안내 방안 미비.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 심리종결예정시기 통지 제도 운영 부적정 특허심판원은 결정계 심판의 심리종결예정시기 준수율을 높이고 예정시기를 3개월 이상 도과하는 경우 변경통지하도록 심판부 성과관리지표에 반영하는 등의 개선방안을 마련하도록 통보  </t>
+  </si>
+  <si>
+    <t>공개문-[특허청(통보)] 심리종결예정시기 통지 제도 운영 부적정.pdf</t>
+  </si>
+  <si>
+    <t>공직비리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190101 ~ 20190930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 공직비리 신고보상금 및 포상금제도 운용 불합리 공익증진 기여도를 제대로 반영할 수 있도록 신고보상금 지급액 산정기준을 합리적으로 개정하는 한편, 신고보상금과 포상금을 산정·지급할 때 제보자간 형평성 문제를 해소할 수 있는 방안을 마련하도록 통보  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>감사원</t>
-  </si>
-  <si>
-    <t>공개문-[감사원(통보)]__증인·감정인_등에_대한_여비_지급_절차_등_규정_미비.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 직불형 정부구매카드 도입 필요 정부구매카드로 신용카드 외에 가맹점 수수료율이 낮은 직불카드도 도입하는 방안을 마련하도록 통보  </t>
-  </si>
-  <si>
-    <t>공개문-[감사원(통보)]__직불형_정부구매카드_도입_필요.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 민간학회 학술대회 지원 부적정 민간이 주관하는 행사 경비를 예산 편성 및 집행 지침과 달리 지원한 데 대하여 주의요구  </t>
-  </si>
-  <si>
-    <t>공개문-[감사원(주의)]__민간학회_학술대회_지원_부적정.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개문-[감사원(통보)]__공직비리_신고보상금_및_포상금제도_운용_불합리.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,22 +436,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="45.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="6" max="6" width="46.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -458,27 +471,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,13 +522,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
